--- a/MS/Integrate/From-Tomsk/NO2PhO2SOPh-v1-v5.xlsx
+++ b/MS/Integrate/From-Tomsk/NO2PhO2SOPh-v1-v5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="NO2PhO2SOPh-v1-v5" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t xml:space="preserve"> v1</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">С(mg/mL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -123,8 +129,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -205,12 +210,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -275,7 +280,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -316,21 +321,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -425,11 +415,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61927290"/>
-        <c:axId val="89437717"/>
+        <c:axId val="82269537"/>
+        <c:axId val="22222308"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61927290"/>
+        <c:axId val="82269537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,24 +439,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89437717"/>
+        <c:crossAx val="22222308"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89437717"/>
+        <c:axId val="22222308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,19 +490,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61927290"/>
+        <c:crossAx val="82269537"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -530,20 +528,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -559,7 +543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -600,21 +584,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -709,11 +678,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60480002"/>
-        <c:axId val="11009954"/>
+        <c:axId val="97614900"/>
+        <c:axId val="73174145"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60480002"/>
+        <c:axId val="97614900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,24 +702,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11009954"/>
+        <c:crossAx val="73174145"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11009954"/>
+        <c:axId val="73174145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,19 +753,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60480002"/>
+        <c:crossAx val="97614900"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -814,20 +791,6 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
@@ -843,7 +806,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -873,21 +836,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -982,11 +930,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22358575"/>
-        <c:axId val="23971526"/>
+        <c:axId val="62838492"/>
+        <c:axId val="30756689"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22358575"/>
+        <c:axId val="62838492"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,18 +957,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Время, с</a:t>
@@ -1029,12 +987,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1050,24 +1002,28 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23971526"/>
+        <c:crossAx val="30756689"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23971526"/>
+        <c:axId val="30756689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,18 +1046,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="0" lang="ru-RU" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>Концентрация, мг/мл</a:t>
@@ -1110,12 +1076,6 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
@@ -1131,19 +1091,23 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22358575"/>
+        <c:crossAx val="62838492"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,13 +1142,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>137520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>256680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1193,7 +1157,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="137520" y="2363040"/>
-        <a:ext cx="5759640" cy="3227400"/>
+        <a:ext cx="5761080" cy="3226680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1208,13 +1172,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>461880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
+      <xdr:colOff>435960</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1222,8 +1186,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6101640" y="2370240"/>
-        <a:ext cx="5759280" cy="3225960"/>
+        <a:off x="6103800" y="2370240"/>
+        <a:ext cx="5759280" cy="3225240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1238,13 +1202,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>102240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1252,8 +1216,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12339720" y="2487960"/>
-        <a:ext cx="4519440" cy="2743200"/>
+        <a:off x="12342960" y="2487960"/>
+        <a:ext cx="4518720" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1271,15 +1235,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB11" activeCellId="0" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
@@ -1296,7 +1260,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="7.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="7.93"/>
@@ -1443,8 +1407,11 @@
       <c r="Z2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="AB2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>30</v>
       </c>
@@ -1524,8 +1491,16 @@
         <f aca="false">-0.000000000004204*W3*W3+0.000001152341095*W3</f>
         <v>0.0115247654274561</v>
       </c>
+      <c r="AA3" s="0" t="n">
+        <f aca="false">Z3/279.0201</f>
+        <v>4.13044272704945E-005</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">AA3*300</f>
+        <v>0.0123913281811484</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>60</v>
       </c>
@@ -1605,8 +1580,16 @@
         <f aca="false">-0.000000000004204*W4*W4+0.000001152341095*W4</f>
         <v>0.028087164808574</v>
       </c>
+      <c r="AA4" s="0" t="n">
+        <f aca="false">Z4/279.0201</f>
+        <v>0.000100663589499731</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">AA4*300</f>
+        <v>0.0301990768499193</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>120</v>
       </c>
@@ -1686,8 +1669,16 @@
         <f aca="false">-0.000000000004204*W5*W5+0.000001152341095*W5</f>
         <v>0.027562357329949</v>
       </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">Z5/279.0201</f>
+        <v>9.87826946157248E-005</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">AA5*300</f>
+        <v>0.0296348083847174</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>150</v>
       </c>
@@ -1767,8 +1758,16 @@
         <f aca="false">-0.000000000004204*W6*W6+0.000001152341095*W6</f>
         <v>0.030399715771881</v>
       </c>
+      <c r="AA6" s="0" t="n">
+        <f aca="false">Z6/279.0201</f>
+        <v>0.000108951705529032</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">AA6*300</f>
+        <v>0.0326855116587096</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>180</v>
       </c>
@@ -1848,8 +1847,16 @@
         <f aca="false">-0.000000000004204*W7*W7+0.000001152341095*W7</f>
         <v>0.0280134177052319</v>
       </c>
+      <c r="AA7" s="0" t="n">
+        <f aca="false">Z7/279.0201</f>
+        <v>0.000100399282005963</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">AA7*300</f>
+        <v>0.0301197846017889</v>
+      </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>240</v>
       </c>
@@ -1929,8 +1936,16 @@
         <f aca="false">-0.000000000004204*W8*W8+0.000001152341095*W8</f>
         <v>0.0267614775740556</v>
       </c>
+      <c r="AA8" s="0" t="n">
+        <f aca="false">Z8/279.0201</f>
+        <v>9.59123646434633E-005</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">AA8*300</f>
+        <v>0.028773709393039</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>300</v>
       </c>
@@ -2010,8 +2025,16 @@
         <f aca="false">-0.000000000004204*W9*W9+0.000001152341095*W9</f>
         <v>0.0276473368637214</v>
       </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">Z9/279.0201</f>
+        <v>9.90872588165562E-005</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">AA9*300</f>
+        <v>0.0297261776449669</v>
+      </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>450</v>
       </c>
@@ -2091,8 +2114,16 @@
         <f aca="false">-0.000000000004204*W10*W10+0.000001152341095*W10</f>
         <v>0.0270364643700738</v>
       </c>
+      <c r="AA10" s="0" t="n">
+        <f aca="false">Z10/279.0201</f>
+        <v>9.68979093981896E-005</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">AA10*300</f>
+        <v>0.0290693728194569</v>
+      </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>600</v>
       </c>
@@ -2172,8 +2203,16 @@
         <f aca="false">-0.000000000004204*W11*W11+0.000001152341095*W11</f>
         <v>0.0312520975658923</v>
       </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">Z11/279.0201</f>
+        <v>0.000112006617322165</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">AA11*300</f>
+        <v>0.0336019851966495</v>
+      </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>750</v>
       </c>
@@ -2253,8 +2292,16 @@
         <f aca="false">-0.000000000004204*W12*W12+0.000001152341095*W12</f>
         <v>0.0236165559873763</v>
       </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">Z12/279.0201</f>
+        <v>8.46410562800898E-005</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">AA12*300</f>
+        <v>0.0253923168840269</v>
+      </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>900</v>
       </c>
@@ -2333,6 +2380,14 @@
       <c r="Z13" s="0" t="n">
         <f aca="false">-0.000000000004204*W13*W13+0.000001152341095*W13</f>
         <v>0.020157269287441</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <f aca="false">Z13/279.0201</f>
+        <v>7.22430724074753E-005</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">AA13*300</f>
+        <v>0.0216729217222426</v>
       </c>
     </row>
   </sheetData>
@@ -2354,11 +2409,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -2368,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0115247654274561</v>
+        <v>4.13044272704945E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,7 +2439,7 @@
         <v>60</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.028087164808574</v>
+        <v>0.000100663589499731</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,7 +2447,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.027562357329949</v>
+        <v>9.87826946157248E-005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,7 +2455,7 @@
         <v>150</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.030399715771881</v>
+        <v>0.000108951705529032</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2463,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.0280134177052319</v>
+        <v>0.000100399282005963</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2471,7 @@
         <v>240</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.0267614775740556</v>
+        <v>9.59123646434633E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2479,7 @@
         <v>300</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.0276473368637214</v>
+        <v>9.90872588165562E-005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,7 +2487,7 @@
         <v>450</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.0270364643700738</v>
+        <v>9.68979093981896E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2495,7 @@
         <v>600</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.0312520975658923</v>
+        <v>0.000112006617322165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,7 +2503,7 @@
         <v>750</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.0236165559873763</v>
+        <v>8.46410562800898E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,7 +2511,7 @@
         <v>900</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.020157269287441</v>
+        <v>7.22430724074753E-005</v>
       </c>
     </row>
   </sheetData>
